--- a/medicine/Enfance/Claude_Veillot/Claude_Veillot.xlsx
+++ b/medicine/Enfance/Claude_Veillot/Claude_Veillot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Veillot, né le 29 septembre 1925 à Fontenay-le-Comte dans le département de la Vendée et mort le 21 avril 2008 à La Rochelle dans le département de la Charente-Maritime[1], est un scénariste et un écrivain français, auteur de romans de littérature pour la jeunesse et de science-fiction.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Veillot, né le 29 septembre 1925 à Fontenay-le-Comte dans le département de la Vendée et mort le 21 avril 2008 à La Rochelle dans le département de la Charente-Maritime, est un scénariste et un écrivain français, auteur de romans de littérature pour la jeunesse et de science-fiction.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Julien Veillot exerce la profession de journaliste, parcourant le Sahara à plusieurs reprises pour Le Journal d'Alger, avant de publier ses premiers textes de science-fiction vers 1950 et le roman d'aventures Nous n'irons pas en Nigéria (1962), rebaptisé 100 000 dollars au soleil, lors de son adaptation au cinéma sous ce titre par Henri Verneuil.
 Claude Veillot est également scénariste, essentiellement pour des films policiers, souvent complice du réalisateur Yves Boisset et particulièrement co-scénariste du gros succès populaire de Robert Enrico, Le Vieux Fusil sorti en 1975 sur les écrans français, avec en vedettes Philippe Noiret et Romy Schneider.
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nous n'irons pas en Nigeria, Paris, Denoël, 1962 ; réédition sous le titre 100 000 dollars au soleil, Paris, J'ai lu no 472, 1973
 Les Indiens, la chasse au bison, Paris, O.D.E.J., coll. « Beaux contes » no 20, 1963
@@ -586,7 +602,9 @@
           <t>Filmographie (scénariste)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1964 : Cent mille dollars au soleil d'Henri Verneuil
